--- a/1_Description&Scripts/游戏说明/名词表.xlsx
+++ b/1_Description&Scripts/游戏说明/名词表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22980"/>
+    <workbookView windowHeight="29340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,10 +151,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -187,6 +187,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -196,14 +220,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,16 +235,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,7 +281,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,44 +296,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,37 +318,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -340,19 +340,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,19 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,139 +508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,11 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,25 +558,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -591,17 +584,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,11 +625,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,137 +651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,18 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1134,33 +1122,33 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="9.44444444444444" customWidth="1"/>
-    <col min="3" max="3" width="10.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="23.3796296296296" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.8240740740741" customWidth="1"/>
-    <col min="7" max="7" width="100.694444444444" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.44166666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="23.3833333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.825" customWidth="1"/>
+    <col min="7" max="7" width="100.691666666667" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1174,14 +1162,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:7">
+    <row r="3" ht="108" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1191,10 +1179,10 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1208,14 +1196,14 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="16.8" spans="1:7">
+    <row r="13" ht="18" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1225,17 +1213,17 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" ht="25.2" spans="1:7">
+    <row r="20" ht="27" spans="1:7">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1248,11 +1236,11 @@
       <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" ht="25.2" spans="1:7">
+    <row r="21" ht="27" spans="1:7">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1265,11 +1253,11 @@
       <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="42" spans="1:7">
+    <row r="22" ht="45" spans="1:7">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1270,7 @@
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
